--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2452.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2452.xlsx
@@ -354,7 +354,7 @@
         <v>2.306636729939363</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>2.83037815500522</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2452.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2452.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.064057578540733</v>
+        <v>1.84105110168457</v>
       </c>
       <c r="B1">
-        <v>2.306636729939363</v>
+        <v>2.043452262878418</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>2.444795846939087</v>
       </c>
       <c r="D1">
-        <v>2.83037815500522</v>
+        <v>3.761769533157349</v>
       </c>
       <c r="E1">
-        <v>0.9703678189964691</v>
+        <v>1.178920865058899</v>
       </c>
     </row>
   </sheetData>
